--- a/ArticleManage/main_working_folder/output_folders/Data 40 Preparation and characterization of/Data40_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 40 Preparation and characterization of/Data40_all_graphs_excel.xlsx
@@ -5,28 +5,28 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 10 KMR240  0&amp;1&amp;300&amp;950 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 10 KMT240  0&amp;1&amp;250&amp;900 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 10 KUR360  0&amp;1&amp;300&amp;950 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 10 KUT360  0&amp;1&amp;250&amp;900 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 9 BO11-60min  0&amp;0.25&amp;0&amp;8" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 9 BO15-10min  0&amp;0.25&amp;0&amp;1" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 9 BO15-30min  0&amp;0.25&amp;0&amp;1" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 9 BO15-60min  0&amp;0.25&amp;0&amp;8" sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 9 BO26-120min  0&amp;0.25&amp;0&amp;" sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 9 BO26-30min  0&amp;0.25&amp;0&amp;1" sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 9 BO32-120min  0&amp;0.25&amp;0&amp;" sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 9 BO34-60min  0&amp;0.25&amp;0&amp;1" sheetId="12" r:id="rId14"/>
-    <sheet name="Figure 9 BO40-120min  0&amp;0.25&amp;0&amp;" sheetId="13" r:id="rId15"/>
-    <sheet name="Figure 9 BO5-30min  0&amp;0.25&amp;0&amp;80" sheetId="14" r:id="rId16"/>
-    <sheet name="Figure 9 BO51-240min  0&amp;0.25&amp;0&amp;" sheetId="15" r:id="rId17"/>
-    <sheet name="Figure 9 BO56-240min  0&amp;0.25&amp;0&amp;" sheetId="16" r:id="rId18"/>
-    <sheet name="Figure 9 BO58-120min  0&amp;0.25&amp;0&amp;" sheetId="17" r:id="rId19"/>
-    <sheet name="Figure 9 BO65-360min  0&amp;0.25&amp;0&amp;" sheetId="18" r:id="rId20"/>
-    <sheet name="Figure 9 BO79-360min  0&amp;0.25&amp;0&amp;" sheetId="19" r:id="rId21"/>
-    <sheet name="Figure 9 BO8-30min  0&amp;0.25&amp;0&amp;80" sheetId="20" r:id="rId22"/>
-    <sheet name="Figure 9 BO80-240min  0&amp;0.25&amp;0&amp;" sheetId="21" r:id="rId23"/>
-    <sheet name="Figure 9 BO83-240min  0&amp;0.25&amp;0&amp;" sheetId="22" r:id="rId24"/>
+    <sheet name="Figure 10_1 KMR240  0&amp;1&amp;300&amp;950" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 10_1 KUR360  0&amp;1&amp;300&amp;950" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 10_2 KMT240  0&amp;1&amp;250&amp;900" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 10_2 KUT360  0&amp;1&amp;250&amp;900" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 9_1 BO15-60min  0&amp;0.25&amp;0" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 9_1 BO32-120min  0&amp;0.25&amp;" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 9_1 BO51-240min  0&amp;0.25&amp;" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 9_1 BO79-360min  0&amp;0.25&amp;" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 9_1 BO8-30min  0&amp;0.25&amp;0&amp;" sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 9_2 BO15-30min  0&amp;0.25&amp;0" sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 9_2 BO34-60min  0&amp;0.25&amp;0" sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 9_2 BO58-120min  0&amp;0.25&amp;" sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 9_2 BO83-240min  0&amp;0.25&amp;" sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 9_3 BO11-60min  0&amp;0.25&amp;0" sheetId="14" r:id="rId16"/>
+    <sheet name="Figure 9_3 BO26-120min  0&amp;0.25&amp;" sheetId="15" r:id="rId17"/>
+    <sheet name="Figure 9_3 BO5-30min  0&amp;0.25&amp;0&amp;" sheetId="16" r:id="rId18"/>
+    <sheet name="Figure 9_3 BO56-240min  0&amp;0.25&amp;" sheetId="17" r:id="rId19"/>
+    <sheet name="Figure 9_3 BO65-360min  0&amp;0.25&amp;" sheetId="18" r:id="rId20"/>
+    <sheet name="Figure 9_4 BO15-10min  0&amp;0.25&amp;0" sheetId="19" r:id="rId21"/>
+    <sheet name="Figure 9_4 BO26-30min  0&amp;0.25&amp;0" sheetId="20" r:id="rId22"/>
+    <sheet name="Figure 9_4 BO40-120min  0&amp;0.25&amp;" sheetId="21" r:id="rId23"/>
+    <sheet name="Figure 9_4 BO80-240min  0&amp;0.25&amp;" sheetId="22" r:id="rId24"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -44,55 +44,22 @@
     <t>Y</t>
   </si>
   <si>
-    <t>KMT240</t>
+    <t>KUR360</t>
   </si>
   <si>
-    <t>KUR360</t>
+    <t>KMT240</t>
   </si>
   <si>
     <t>KUT360</t>
   </si>
   <si>
-    <t>BO11-60min</t>
-  </si>
-  <si>
-    <t>BO15-10min</t>
-  </si>
-  <si>
-    <t>BO15-30min</t>
-  </si>
-  <si>
     <t>BO15-60min</t>
-  </si>
-  <si>
-    <t>BO26-120min</t>
-  </si>
-  <si>
-    <t>BO26-30min</t>
   </si>
   <si>
     <t>BO32-120min</t>
   </si>
   <si>
-    <t>BO34-60min</t>
-  </si>
-  <si>
-    <t>BO40-120min</t>
-  </si>
-  <si>
-    <t>BO5-30min</t>
-  </si>
-  <si>
     <t>BO51-240min</t>
-  </si>
-  <si>
-    <t>BO56-240min</t>
-  </si>
-  <si>
-    <t>BO58-120min</t>
-  </si>
-  <si>
-    <t>BO65-360min</t>
   </si>
   <si>
     <t>BO79-360min</t>
@@ -101,10 +68,43 @@
     <t>BO8-30min</t>
   </si>
   <si>
-    <t>BO80-240min</t>
+    <t>BO15-30min</t>
+  </si>
+  <si>
+    <t>BO34-60min</t>
+  </si>
+  <si>
+    <t>BO58-120min</t>
   </si>
   <si>
     <t>BO83-240min</t>
+  </si>
+  <si>
+    <t>BO11-60min</t>
+  </si>
+  <si>
+    <t>BO26-120min</t>
+  </si>
+  <si>
+    <t>BO5-30min</t>
+  </si>
+  <si>
+    <t>BO56-240min</t>
+  </si>
+  <si>
+    <t>BO65-360min</t>
+  </si>
+  <si>
+    <t>BO15-10min</t>
+  </si>
+  <si>
+    <t>BO26-30min</t>
+  </si>
+  <si>
+    <t>BO40-120min</t>
+  </si>
+  <si>
+    <t>BO80-240min</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KMR240 z wykresu 'Figure 10' </a:t>
+              <a:t>Izoterma adsorpcji probki KMR240 z wykresu 'Figure 10_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -240,12 +240,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 10 KMR240  0&amp;1&amp;300&amp;950 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 10_1 KMR240  0&amp;1&amp;300&amp;950'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 10 KMR240  0&amp;1&amp;300&amp;950 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 10_1 KMR240  0&amp;1&amp;300&amp;950'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -495,7 +495,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO26-30min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO15-30min z wykresu 'Figure 9_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -554,12 +554,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO26-30min  0&amp;0.25&amp;0&amp;1'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_2 BO15-30min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO26-30min  0&amp;0.25&amp;0&amp;1'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_2 BO15-30min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -809,7 +809,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO32-120min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO34-60min z wykresu 'Figure 9_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -868,12 +868,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO32-120min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_2 BO34-60min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO32-120min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_2 BO34-60min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -957,7 +957,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="1000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1123,7 +1123,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO34-60min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO58-120min z wykresu 'Figure 9_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1182,12 +1182,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO34-60min  0&amp;0.25&amp;0&amp;1'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_2 BO58-120min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO34-60min  0&amp;0.25&amp;0&amp;1'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_2 BO58-120min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1437,7 +1437,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO40-120min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO83-240min z wykresu 'Figure 9_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1496,12 +1496,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO40-120min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_2 BO83-240min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO40-120min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_2 BO83-240min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1751,7 +1751,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO5-30min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO11-60min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1810,12 +1810,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO5-30min  0&amp;0.25&amp;0&amp;80'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 BO11-60min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO5-30min  0&amp;0.25&amp;0&amp;80'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 BO11-60min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2065,7 +2065,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO51-240min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO26-120min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2124,12 +2124,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO51-240min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 BO26-120min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO51-240min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 BO26-120min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2379,7 +2379,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO56-240min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO5-30min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2438,12 +2438,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO56-240min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 BO5-30min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO56-240min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 BO5-30min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2693,7 +2693,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO58-120min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO56-240min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2752,12 +2752,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO58-120min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 BO56-240min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO58-120min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 BO56-240min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2841,7 +2841,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="800"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3007,7 +3007,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO65-360min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO65-360min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3066,12 +3066,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO65-360min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 BO65-360min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO65-360min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 BO65-360min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3321,7 +3321,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO79-360min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO15-10min z wykresu 'Figure 9_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3380,12 +3380,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO79-360min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_4 BO15-10min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO79-360min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_4 BO15-10min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3469,7 +3469,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="1000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3635,7 +3635,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KMT240 z wykresu 'Figure 10' </a:t>
+              <a:t>Izoterma adsorpcji probki KUR360 z wykresu 'Figure 10_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3694,12 +3694,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 10 KMT240  0&amp;1&amp;250&amp;900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 10_1 KUR360  0&amp;1&amp;300&amp;950'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 10 KMT240  0&amp;1&amp;250&amp;900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 10_1 KUR360  0&amp;1&amp;300&amp;950'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3783,8 +3783,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="900"/>
-          <c:min val="250"/>
+          <c:max val="950"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3949,7 +3949,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO8-30min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO26-30min z wykresu 'Figure 9_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4008,12 +4008,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO8-30min  0&amp;0.25&amp;0&amp;80'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_4 BO26-30min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO8-30min  0&amp;0.25&amp;0&amp;80'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_4 BO26-30min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4097,7 +4097,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="1000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4263,7 +4263,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO80-240min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO40-120min z wykresu 'Figure 9_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4322,12 +4322,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO80-240min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_4 BO40-120min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO80-240min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_4 BO40-120min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4577,7 +4577,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO83-240min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO80-240min z wykresu 'Figure 9_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4636,12 +4636,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO83-240min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_4 BO80-240min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO83-240min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_4 BO80-240min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4891,7 +4891,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KUR360 z wykresu 'Figure 10' </a:t>
+              <a:t>Izoterma adsorpcji probki KMT240 z wykresu 'Figure 10_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4950,12 +4950,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 10 KUR360  0&amp;1&amp;300&amp;950 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 10_2 KMT240  0&amp;1&amp;250&amp;900'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 10 KUR360  0&amp;1&amp;300&amp;950 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 10_2 KMT240  0&amp;1&amp;250&amp;900'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5039,8 +5039,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="950"/>
-          <c:min val="300"/>
+          <c:max val="900"/>
+          <c:min val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5205,7 +5205,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki KUT360 z wykresu 'Figure 10' </a:t>
+              <a:t>Izoterma adsorpcji probki KUT360 z wykresu 'Figure 10_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5264,12 +5264,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 10 KUT360  0&amp;1&amp;250&amp;900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 10_2 KUT360  0&amp;1&amp;250&amp;900'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 10 KUT360  0&amp;1&amp;250&amp;900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 10_2 KUT360  0&amp;1&amp;250&amp;900'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5519,7 +5519,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO11-60min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO15-60min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5578,12 +5578,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO11-60min  0&amp;0.25&amp;0&amp;8'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 BO15-60min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO11-60min  0&amp;0.25&amp;0&amp;8'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 BO15-60min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5833,7 +5833,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO15-10min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO32-120min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5892,12 +5892,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO15-10min  0&amp;0.25&amp;0&amp;1'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 BO32-120min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO15-10min  0&amp;0.25&amp;0&amp;1'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 BO32-120min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5981,7 +5981,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="800"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6147,7 +6147,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO15-30min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO51-240min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6206,12 +6206,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO15-30min  0&amp;0.25&amp;0&amp;1'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 BO51-240min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO15-30min  0&amp;0.25&amp;0&amp;1'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 BO51-240min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -6295,7 +6295,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="800"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6461,7 +6461,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO15-60min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO79-360min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6520,12 +6520,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO15-60min  0&amp;0.25&amp;0&amp;8'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 BO79-360min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO15-60min  0&amp;0.25&amp;0&amp;8'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 BO79-360min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -6775,7 +6775,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO26-120min z wykresu 'Figure 9' </a:t>
+              <a:t>Izoterma adsorpcji probki BO8-30min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6834,12 +6834,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 BO26-120min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 BO8-30min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 BO26-120min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 BO8-30min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -20725,7 +20725,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20746,181 +20746,141 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2271</v>
+        <v>0.1997</v>
       </c>
       <c r="B3" s="0">
-        <v>207.1563</v>
+        <v>180.5269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1923</v>
+        <v>0.1798</v>
       </c>
       <c r="B4" s="0">
-        <v>202.8673</v>
+        <v>180.0482</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1583</v>
+        <v>0.1588</v>
       </c>
       <c r="B5" s="0">
-        <v>199.4802</v>
+        <v>178.7869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1259</v>
+        <v>0.1395</v>
       </c>
       <c r="B6" s="0">
-        <v>195.242</v>
+        <v>178.3203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1155</v>
+        <v>0.1186</v>
       </c>
       <c r="B7" s="0">
-        <v>193.2463</v>
+        <v>177.063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1051</v>
+        <v>0.1</v>
       </c>
       <c r="B8" s="0">
-        <v>191.2505</v>
+        <v>175.8585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0954</v>
+        <v>0.08</v>
       </c>
       <c r="B9" s="0">
-        <v>189.2692</v>
+        <v>173.8674</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0857</v>
+        <v>0.0699</v>
       </c>
       <c r="B10" s="0">
-        <v>187.2879</v>
+        <v>173.624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0764</v>
+        <v>0.0616</v>
       </c>
       <c r="B11" s="0">
-        <v>185.3139</v>
+        <v>173.4252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0672</v>
+        <v>0.0563</v>
       </c>
       <c r="B12" s="0">
-        <v>183.3435</v>
+        <v>172.5412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0587</v>
+        <v>0.0514</v>
       </c>
       <c r="B13" s="0">
-        <v>179.6131</v>
+        <v>171.6694</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0502</v>
+        <v>0.0443</v>
       </c>
       <c r="B14" s="0">
-        <v>177.6572</v>
+        <v>170.7449</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0427</v>
+        <v>0.0371</v>
       </c>
       <c r="B15" s="0">
-        <v>175.723</v>
+        <v>169.8163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0353</v>
+        <v>0.0307</v>
       </c>
       <c r="B16" s="0">
-        <v>172.9052</v>
+        <v>168.908</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0289</v>
+        <v>0.0255</v>
       </c>
       <c r="B17" s="0">
-        <v>168.331</v>
+        <v>168.028</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0228</v>
+        <v>0.0163</v>
       </c>
       <c r="B18" s="0">
-        <v>165.5386</v>
+        <v>163.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0175</v>
+        <v>0.0057</v>
       </c>
       <c r="B19" s="0">
-        <v>161.8771</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0134</v>
-      </c>
-      <c r="B20" s="0">
-        <v>159.1282</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0097</v>
-      </c>
-      <c r="B21" s="0">
-        <v>155.4993</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0061</v>
-      </c>
-      <c r="B22" s="0">
-        <v>149.2121</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0032</v>
-      </c>
-      <c r="B23" s="0">
-        <v>139.3904</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0014</v>
-      </c>
-      <c r="B24" s="0">
-        <v>127.8158</v>
-      </c>
-    </row>
-    <row r="25"/>
+        <v>156.2372</v>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -20928,202 +20888,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.1995</v>
-      </c>
-      <c r="B3" s="0">
-        <v>320.1197</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.1795</v>
-      </c>
-      <c r="B4" s="0">
-        <v>320.2109</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1579</v>
-      </c>
-      <c r="B5" s="0">
-        <v>318.0313</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1376</v>
-      </c>
-      <c r="B6" s="0">
-        <v>316.6362</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1153</v>
-      </c>
-      <c r="B7" s="0">
-        <v>315.1738</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1015</v>
-      </c>
-      <c r="B8" s="0">
-        <v>313.9857</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0808</v>
-      </c>
-      <c r="B9" s="0">
-        <v>311.8371</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0712</v>
-      </c>
-      <c r="B10" s="0">
-        <v>312.2647</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0597</v>
-      </c>
-      <c r="B11" s="0">
-        <v>308.9402</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.0514</v>
-      </c>
-      <c r="B12" s="0">
-        <v>306.4571</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0438</v>
-      </c>
-      <c r="B13" s="0">
-        <v>303.9948</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0379</v>
-      </c>
-      <c r="B14" s="0">
-        <v>299.3754</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.033</v>
-      </c>
-      <c r="B15" s="0">
-        <v>296.2631</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0279</v>
-      </c>
-      <c r="B16" s="0">
-        <v>296.0975</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0236</v>
-      </c>
-      <c r="B17" s="0">
-        <v>293.0058</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0193</v>
-      </c>
-      <c r="B18" s="0">
-        <v>288.4382</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0143</v>
-      </c>
-      <c r="B19" s="0">
-        <v>282.3738</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0097</v>
-      </c>
-      <c r="B20" s="0">
-        <v>277.0578</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0064</v>
-      </c>
-      <c r="B21" s="0">
-        <v>268.0933</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0041</v>
-      </c>
-      <c r="B22" s="0">
-        <v>259.9029</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0024</v>
-      </c>
-      <c r="B23" s="0">
-        <v>248.7761</v>
-      </c>
-    </row>
-    <row r="24"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -21133,7 +20897,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -21425,6 +21189,298 @@
       </c>
     </row>
     <row r="38"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.213</v>
+      </c>
+      <c r="B3" s="0">
+        <v>462.1463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.189</v>
+      </c>
+      <c r="B4" s="0">
+        <v>453.2706</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1656</v>
+      </c>
+      <c r="B5" s="0">
+        <v>442.9028</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1431</v>
+      </c>
+      <c r="B6" s="0">
+        <v>431.8011</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1221</v>
+      </c>
+      <c r="B7" s="0">
+        <v>420.736</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1149</v>
+      </c>
+      <c r="B8" s="0">
+        <v>417.545</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1083</v>
+      </c>
+      <c r="B9" s="0">
+        <v>412.8619</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1016</v>
+      </c>
+      <c r="B10" s="0">
+        <v>408.9289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0952</v>
+      </c>
+      <c r="B11" s="0">
+        <v>405.004</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.089</v>
+      </c>
+      <c r="B12" s="0">
+        <v>401.0832</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0829</v>
+      </c>
+      <c r="B13" s="0">
+        <v>394.904</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0765</v>
+      </c>
+      <c r="B14" s="0">
+        <v>392.4874</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0707</v>
+      </c>
+      <c r="B15" s="0">
+        <v>387.0664</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0651</v>
+      </c>
+      <c r="B16" s="0">
+        <v>382.4077</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0599</v>
+      </c>
+      <c r="B17" s="0">
+        <v>377.0029</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0542</v>
+      </c>
+      <c r="B18" s="0">
+        <v>372.3401</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0495</v>
+      </c>
+      <c r="B19" s="0">
+        <v>368.4558</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0446</v>
+      </c>
+      <c r="B20" s="0">
+        <v>363.0591</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0401</v>
+      </c>
+      <c r="B21" s="0">
+        <v>357.6706</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0359</v>
+      </c>
+      <c r="B22" s="0">
+        <v>352.2902</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0313</v>
+      </c>
+      <c r="B23" s="0">
+        <v>346.9016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0273</v>
+      </c>
+      <c r="B24" s="0">
+        <v>341.5253</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0238</v>
+      </c>
+      <c r="B25" s="0">
+        <v>335.4069</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0202</v>
+      </c>
+      <c r="B26" s="0">
+        <v>330.0427</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.017</v>
+      </c>
+      <c r="B27" s="0">
+        <v>323.9325</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0145</v>
+      </c>
+      <c r="B28" s="0">
+        <v>317.0844</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0123</v>
+      </c>
+      <c r="B29" s="0">
+        <v>311.7526</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="B30" s="0">
+        <v>304.1544</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0078</v>
+      </c>
+      <c r="B31" s="0">
+        <v>295.8061</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.006</v>
+      </c>
+      <c r="B32" s="0">
+        <v>287.4659</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0044</v>
+      </c>
+      <c r="B33" s="0">
+        <v>276.1173</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0031</v>
+      </c>
+      <c r="B34" s="0">
+        <v>264.0186</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0019</v>
+      </c>
+      <c r="B35" s="0">
+        <v>250.4156</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -21433,7 +21489,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21454,229 +21510,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2132</v>
+        <v>0.2174</v>
       </c>
       <c r="B3" s="0">
-        <v>378.1117</v>
+        <v>928.3155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1815</v>
+        <v>0.1939</v>
       </c>
       <c r="B4" s="0">
-        <v>370.3389</v>
+        <v>893.0569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1504</v>
+        <v>0.1702</v>
       </c>
       <c r="B5" s="0">
-        <v>361.6897</v>
+        <v>857.7943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1214</v>
+        <v>0.1467</v>
       </c>
       <c r="B6" s="0">
-        <v>351.3131</v>
+        <v>818.7651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1119</v>
+        <v>0.1243</v>
       </c>
       <c r="B7" s="0">
-        <v>348.4482</v>
+        <v>782.0267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1029</v>
+        <v>0.1168</v>
       </c>
       <c r="B8" s="0">
-        <v>344.7068</v>
+        <v>769.0237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0937</v>
+        <v>0.1092</v>
       </c>
       <c r="B9" s="0">
-        <v>340.9619</v>
+        <v>756.7748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.085</v>
+        <v>0.1018</v>
       </c>
       <c r="B10" s="0">
-        <v>337.2278</v>
+        <v>743.7759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0768</v>
+        <v>0.0944</v>
       </c>
       <c r="B11" s="0">
-        <v>332.6173</v>
+        <v>729.2687</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0687</v>
+        <v>0.0872</v>
       </c>
       <c r="B12" s="0">
-        <v>327.1195</v>
+        <v>716.2738</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.061</v>
+        <v>0.08</v>
       </c>
       <c r="B13" s="0">
-        <v>322.5199</v>
+        <v>701.7707</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0539</v>
+        <v>0.0731</v>
       </c>
       <c r="B14" s="0">
-        <v>317.9312</v>
+        <v>687.2756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0464</v>
+        <v>0.0662</v>
       </c>
       <c r="B15" s="0">
-        <v>311.5607</v>
+        <v>673.5347</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0399</v>
+        <v>0.0591</v>
       </c>
       <c r="B16" s="0">
-        <v>306.9864</v>
+        <v>658.2815</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0338</v>
+        <v>0.0526</v>
       </c>
       <c r="B17" s="0">
-        <v>303.3068</v>
+        <v>645.3029</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.028</v>
+        <v>0.0462</v>
       </c>
       <c r="B18" s="0">
-        <v>296.0852</v>
+        <v>628.5576</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0227</v>
+        <v>0.0396</v>
       </c>
       <c r="B19" s="0">
-        <v>290.6491</v>
+        <v>615.5789</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0183</v>
+        <v>0.0339</v>
       </c>
       <c r="B20" s="0">
-        <v>284.3438</v>
+        <v>599.604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0142</v>
+        <v>0.0282</v>
       </c>
       <c r="B21" s="0">
-        <v>278.0458</v>
+        <v>582.8749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0105</v>
+        <v>0.023</v>
       </c>
       <c r="B22" s="0">
-        <v>271.755</v>
+        <v>565.4039</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0078</v>
+        <v>0.0181</v>
       </c>
       <c r="B23" s="0">
-        <v>264.5988</v>
+        <v>547.1869</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0056</v>
+        <v>0.0136</v>
       </c>
       <c r="B24" s="0">
-        <v>253.9042</v>
+        <v>529.732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0036</v>
+        <v>0.0101</v>
       </c>
       <c r="B25" s="0">
-        <v>242.326</v>
+        <v>510.0392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0022</v>
+        <v>0.0076</v>
       </c>
       <c r="B26" s="0">
-        <v>229.8751</v>
+        <v>487.3541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0017</v>
+        <v>0.0052</v>
       </c>
       <c r="B27" s="0">
-        <v>213.8931</v>
+        <v>464.673</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0013</v>
+        <v>0.0036</v>
       </c>
       <c r="B28" s="0">
-        <v>196.1366</v>
+        <v>442.0082</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0008</v>
+        <v>0.0024</v>
       </c>
       <c r="B29" s="0">
-        <v>178.38</v>
+        <v>417.0931</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
+        <v>0.0016</v>
+      </c>
+      <c r="B30" s="0">
+        <v>391.432</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B31" s="0">
+        <v>364.2707</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0007</v>
+      </c>
+      <c r="B32" s="0">
+        <v>338.6218</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
         <v>0.0006</v>
       </c>
-      <c r="B30" s="0">
-        <v>158.8562</v>
-      </c>
-    </row>
-    <row r="31"/>
+      <c r="B33" s="0">
+        <v>311.4686</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0002</v>
+      </c>
+      <c r="B34" s="0">
+        <v>282.8031</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -21684,6 +21772,446 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.1992</v>
+      </c>
+      <c r="B3" s="0">
+        <v>105.918</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.1607</v>
+      </c>
+      <c r="B4" s="0">
+        <v>105.5228</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.123</v>
+      </c>
+      <c r="B5" s="0">
+        <v>104.4208</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1103</v>
+      </c>
+      <c r="B6" s="0">
+        <v>103.3197</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0976</v>
+      </c>
+      <c r="B7" s="0">
+        <v>102.9492</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0854</v>
+      </c>
+      <c r="B8" s="0">
+        <v>102.5929</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0739</v>
+      </c>
+      <c r="B9" s="0">
+        <v>101.5251</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0617</v>
+      </c>
+      <c r="B10" s="0">
+        <v>101.1688</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0505</v>
+      </c>
+      <c r="B11" s="0">
+        <v>99.3799</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0396</v>
+      </c>
+      <c r="B12" s="0">
+        <v>98.331</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0294</v>
+      </c>
+      <c r="B13" s="0">
+        <v>96.5706</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0199</v>
+      </c>
+      <c r="B14" s="0">
+        <v>94.1033</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0121</v>
+      </c>
+      <c r="B15" s="0">
+        <v>91.6836</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0063</v>
+      </c>
+      <c r="B16" s="0">
+        <v>87.1291</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0026</v>
+      </c>
+      <c r="B17" s="0">
+        <v>84.0975</v>
+      </c>
+    </row>
+    <row r="18"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.199</v>
+      </c>
+      <c r="B3" s="0">
+        <v>243.993</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.1788</v>
+      </c>
+      <c r="B4" s="0">
+        <v>243.404</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1577</v>
+      </c>
+      <c r="B5" s="0">
+        <v>242.7865</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1383</v>
+      </c>
+      <c r="B6" s="0">
+        <v>240.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1174</v>
+      </c>
+      <c r="B7" s="0">
+        <v>240.8778</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1001</v>
+      </c>
+      <c r="B8" s="0">
+        <v>238.1826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B9" s="0">
+        <v>236.1324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0701</v>
+      </c>
+      <c r="B10" s="0">
+        <v>235.8426</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0624</v>
+      </c>
+      <c r="B11" s="0">
+        <v>234.1582</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0585</v>
+      </c>
+      <c r="B12" s="0">
+        <v>233.3136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0553</v>
+      </c>
+      <c r="B13" s="0">
+        <v>233.9492</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0519</v>
+      </c>
+      <c r="B14" s="0">
+        <v>232.3883</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0486</v>
+      </c>
+      <c r="B15" s="0">
+        <v>231.5627</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0454</v>
+      </c>
+      <c r="B16" s="0">
+        <v>230.0065</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0421</v>
+      </c>
+      <c r="B17" s="0">
+        <v>229.1809</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0392</v>
+      </c>
+      <c r="B18" s="0">
+        <v>228.3649</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0361</v>
+      </c>
+      <c r="B19" s="0">
+        <v>227.544</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0337</v>
+      </c>
+      <c r="B20" s="0">
+        <v>227.4728</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0306</v>
+      </c>
+      <c r="B21" s="0">
+        <v>226.6519</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0283</v>
+      </c>
+      <c r="B22" s="0">
+        <v>226.5854</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0262</v>
+      </c>
+      <c r="B23" s="0">
+        <v>225.0625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0242</v>
+      </c>
+      <c r="B24" s="0">
+        <v>223.5444</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0221</v>
+      </c>
+      <c r="B25" s="0">
+        <v>222.752</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B26" s="0">
+        <v>220.4985</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0179</v>
+      </c>
+      <c r="B27" s="0">
+        <v>218.245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0156</v>
+      </c>
+      <c r="B28" s="0">
+        <v>216.7174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0135</v>
+      </c>
+      <c r="B29" s="0">
+        <v>214.4639</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0112</v>
+      </c>
+      <c r="B30" s="0">
+        <v>212.2056</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0091</v>
+      </c>
+      <c r="B31" s="0">
+        <v>209.2216</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.007</v>
+      </c>
+      <c r="B32" s="0">
+        <v>205.5069</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0051</v>
+      </c>
+      <c r="B33" s="0">
+        <v>201.797</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0031</v>
+      </c>
+      <c r="B34" s="0">
+        <v>198.8177</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0017</v>
+      </c>
+      <c r="B35" s="0">
+        <v>193.6609</v>
+      </c>
+    </row>
+    <row r="36"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -21693,7 +22221,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -21847,315 +22375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.2091</v>
-      </c>
-      <c r="B3" s="0">
-        <v>494.6016</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.1771</v>
-      </c>
-      <c r="B4" s="0">
-        <v>489.1337</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1477</v>
-      </c>
-      <c r="B5" s="0">
-        <v>484.4917</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1226</v>
-      </c>
-      <c r="B6" s="0">
-        <v>477.7703</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1149</v>
-      </c>
-      <c r="B7" s="0">
-        <v>473.094</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1076</v>
-      </c>
-      <c r="B8" s="0">
-        <v>471.38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1006</v>
-      </c>
-      <c r="B9" s="0">
-        <v>468.9384</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0945</v>
-      </c>
-      <c r="B10" s="0">
-        <v>466.5278</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0882</v>
-      </c>
-      <c r="B11" s="0">
-        <v>464.1069</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.0823</v>
-      </c>
-      <c r="B12" s="0">
-        <v>459.4875</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0768</v>
-      </c>
-      <c r="B13" s="0">
-        <v>457.0976</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0716</v>
-      </c>
-      <c r="B14" s="0">
-        <v>453.9749</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0668</v>
-      </c>
-      <c r="B15" s="0">
-        <v>450.1297</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0619</v>
-      </c>
-      <c r="B16" s="0">
-        <v>446.2793</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0574</v>
-      </c>
-      <c r="B17" s="0">
-        <v>442.4445</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0533</v>
-      </c>
-      <c r="B18" s="0">
-        <v>438.62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0495</v>
-      </c>
-      <c r="B19" s="0">
-        <v>433.3299</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.046</v>
-      </c>
-      <c r="B20" s="0">
-        <v>431.0021</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0421</v>
-      </c>
-      <c r="B21" s="0">
-        <v>426.4499</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0389</v>
-      </c>
-      <c r="B22" s="0">
-        <v>421.9185</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0358</v>
-      </c>
-      <c r="B23" s="0">
-        <v>418.863</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0329</v>
-      </c>
-      <c r="B24" s="0">
-        <v>413.604</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0297</v>
-      </c>
-      <c r="B25" s="0">
-        <v>409.0725</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0272</v>
-      </c>
-      <c r="B26" s="0">
-        <v>403.8238</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0248</v>
-      </c>
-      <c r="B27" s="0">
-        <v>400.0562</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0221</v>
-      </c>
-      <c r="B28" s="0">
-        <v>395.5403</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B29" s="0">
-        <v>389.5691</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0176</v>
-      </c>
-      <c r="B30" s="0">
-        <v>384.3255</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0151</v>
-      </c>
-      <c r="B31" s="0">
-        <v>379.0768</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0125</v>
-      </c>
-      <c r="B32" s="0">
-        <v>373.0901</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0103</v>
-      </c>
-      <c r="B33" s="0">
-        <v>363.4237</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0084</v>
-      </c>
-      <c r="B34" s="0">
-        <v>354.5057</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0063</v>
-      </c>
-      <c r="B35" s="0">
-        <v>344.8445</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0047</v>
-      </c>
-      <c r="B36" s="0">
-        <v>333.7229</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0035</v>
-      </c>
-      <c r="B37" s="0">
-        <v>321.1356</v>
-      </c>
-    </row>
-    <row r="38"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -22165,7 +22385,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -22505,298 +22725,6 @@
       </c>
     </row>
     <row r="44"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.213</v>
-      </c>
-      <c r="B3" s="0">
-        <v>462.1463</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.189</v>
-      </c>
-      <c r="B4" s="0">
-        <v>453.2706</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1656</v>
-      </c>
-      <c r="B5" s="0">
-        <v>442.9028</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1431</v>
-      </c>
-      <c r="B6" s="0">
-        <v>431.8011</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1221</v>
-      </c>
-      <c r="B7" s="0">
-        <v>420.736</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1149</v>
-      </c>
-      <c r="B8" s="0">
-        <v>417.545</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1083</v>
-      </c>
-      <c r="B9" s="0">
-        <v>412.8619</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1016</v>
-      </c>
-      <c r="B10" s="0">
-        <v>408.9289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0952</v>
-      </c>
-      <c r="B11" s="0">
-        <v>405.004</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.089</v>
-      </c>
-      <c r="B12" s="0">
-        <v>401.0832</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0829</v>
-      </c>
-      <c r="B13" s="0">
-        <v>394.904</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0765</v>
-      </c>
-      <c r="B14" s="0">
-        <v>392.4874</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0707</v>
-      </c>
-      <c r="B15" s="0">
-        <v>387.0664</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0651</v>
-      </c>
-      <c r="B16" s="0">
-        <v>382.4077</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0599</v>
-      </c>
-      <c r="B17" s="0">
-        <v>377.0029</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0542</v>
-      </c>
-      <c r="B18" s="0">
-        <v>372.3401</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0495</v>
-      </c>
-      <c r="B19" s="0">
-        <v>368.4558</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0446</v>
-      </c>
-      <c r="B20" s="0">
-        <v>363.0591</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0401</v>
-      </c>
-      <c r="B21" s="0">
-        <v>357.6706</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0359</v>
-      </c>
-      <c r="B22" s="0">
-        <v>352.2902</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0313</v>
-      </c>
-      <c r="B23" s="0">
-        <v>346.9016</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0273</v>
-      </c>
-      <c r="B24" s="0">
-        <v>341.5253</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0238</v>
-      </c>
-      <c r="B25" s="0">
-        <v>335.4069</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0202</v>
-      </c>
-      <c r="B26" s="0">
-        <v>330.0427</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.017</v>
-      </c>
-      <c r="B27" s="0">
-        <v>323.9325</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0145</v>
-      </c>
-      <c r="B28" s="0">
-        <v>317.0844</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0123</v>
-      </c>
-      <c r="B29" s="0">
-        <v>311.7526</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="B30" s="0">
-        <v>304.1544</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0078</v>
-      </c>
-      <c r="B31" s="0">
-        <v>295.8061</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.006</v>
-      </c>
-      <c r="B32" s="0">
-        <v>287.4659</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0044</v>
-      </c>
-      <c r="B33" s="0">
-        <v>276.1173</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0031</v>
-      </c>
-      <c r="B34" s="0">
-        <v>264.0186</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0019</v>
-      </c>
-      <c r="B35" s="0">
-        <v>250.4156</v>
-      </c>
-    </row>
-    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -23161,7 +23089,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23182,165 +23110,133 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2004</v>
+        <v>0.2003</v>
       </c>
       <c r="B3" s="0">
-        <v>640.4449</v>
+        <v>26.4613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1942</v>
+        <v>0.1803</v>
       </c>
       <c r="B4" s="0">
-        <v>638.0291</v>
+        <v>26.9243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1763</v>
+        <v>0.1601</v>
       </c>
       <c r="B5" s="0">
-        <v>627.1177</v>
+        <v>26.4928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1559</v>
+        <v>0.1342</v>
       </c>
       <c r="B6" s="0">
-        <v>614.6476</v>
+        <v>28.6034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1344</v>
+        <v>0.1165</v>
       </c>
       <c r="B7" s="0">
-        <v>599.9272</v>
+        <v>29.1135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1222</v>
+        <v>0.0998</v>
       </c>
       <c r="B8" s="0">
-        <v>588.4589</v>
+        <v>26.0963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.101</v>
+        <v>0.0802</v>
       </c>
       <c r="B9" s="0">
-        <v>568.583</v>
+        <v>25.6792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0798</v>
+        <v>0.07</v>
       </c>
       <c r="B10" s="0">
-        <v>543.5411</v>
+        <v>26.3489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0698</v>
+        <v>0.0611</v>
       </c>
       <c r="B11" s="0">
-        <v>530.6692</v>
+        <v>25.273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0601</v>
+        <v>0.0553</v>
       </c>
       <c r="B12" s="0">
-        <v>516.3317</v>
+        <v>26.037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0531</v>
+        <v>0.0499</v>
       </c>
       <c r="B13" s="0">
-        <v>505.0342</v>
+        <v>26.8083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.043</v>
+        <v>0.0412</v>
       </c>
       <c r="B14" s="0">
-        <v>487.7344</v>
+        <v>24.8487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0184</v>
+        <v>0.0339</v>
       </c>
       <c r="B15" s="0">
-        <v>430.845</v>
+        <v>25.5801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0093</v>
+        <v>0.0279</v>
       </c>
       <c r="B16" s="0">
-        <v>396.6024</v>
+        <v>24.5659</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0081</v>
+        <v>0.0139</v>
       </c>
       <c r="B17" s="0">
-        <v>389.181</v>
+        <v>24.2685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0069</v>
+        <v>0.0019</v>
       </c>
       <c r="B18" s="0">
-        <v>380.2889</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.006</v>
-      </c>
-      <c r="B19" s="0">
-        <v>372.1399</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0052</v>
-      </c>
-      <c r="B20" s="0">
-        <v>363.9961</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0043</v>
-      </c>
-      <c r="B21" s="0">
-        <v>353.6332</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.003</v>
-      </c>
-      <c r="B22" s="0">
-        <v>335.142</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>19.5746</v>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -23348,6 +23244,950 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0099</v>
+      </c>
+      <c r="B3" s="0">
+        <v>377.0177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0314</v>
+      </c>
+      <c r="B4" s="0">
+        <v>442.162</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0619</v>
+      </c>
+      <c r="B5" s="0">
+        <v>495.8952</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0849</v>
+      </c>
+      <c r="B6" s="0">
+        <v>531.4169</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0999</v>
+      </c>
+      <c r="B7" s="0">
+        <v>552.0687</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1195</v>
+      </c>
+      <c r="B8" s="0">
+        <v>578.4866</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1391</v>
+      </c>
+      <c r="B9" s="0">
+        <v>602.5151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1599</v>
+      </c>
+      <c r="B10" s="0">
+        <v>627.5071</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1795</v>
+      </c>
+      <c r="B11" s="0">
+        <v>651.5356</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1986</v>
+      </c>
+      <c r="B12" s="0">
+        <v>672.2147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2478</v>
+      </c>
+      <c r="B13" s="0">
+        <v>720.816</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3041</v>
+      </c>
+      <c r="B14" s="0">
+        <v>768.0304</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3517</v>
+      </c>
+      <c r="B15" s="0">
+        <v>799.4152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3999</v>
+      </c>
+      <c r="B16" s="0">
+        <v>824.1132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4506</v>
+      </c>
+      <c r="B17" s="0">
+        <v>840.2244</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4996</v>
+      </c>
+      <c r="B18" s="0">
+        <v>849.6331</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5498</v>
+      </c>
+      <c r="B19" s="0">
+        <v>854.7485</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6007</v>
+      </c>
+      <c r="B20" s="0">
+        <v>857.4783</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6509</v>
+      </c>
+      <c r="B21" s="0">
+        <v>861.1599</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B22" s="0">
+        <v>862.4442</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7508</v>
+      </c>
+      <c r="B23" s="0">
+        <v>864.6961</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7999</v>
+      </c>
+      <c r="B24" s="0">
+        <v>865.9804</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8203</v>
+      </c>
+      <c r="B25" s="0">
+        <v>866.1172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8507</v>
+      </c>
+      <c r="B26" s="0">
+        <v>867.7543</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8752</v>
+      </c>
+      <c r="B27" s="0">
+        <v>869.8302</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9004</v>
+      </c>
+      <c r="B28" s="0">
+        <v>870.4762</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9249</v>
+      </c>
+      <c r="B29" s="0">
+        <v>871.1184</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.95</v>
+      </c>
+      <c r="B30" s="0">
+        <v>871.2865</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9763</v>
+      </c>
+      <c r="B31" s="0">
+        <v>872.8962</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9915</v>
+      </c>
+      <c r="B32" s="0">
+        <v>874.4316</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.2271</v>
+      </c>
+      <c r="B3" s="0">
+        <v>207.1563</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.1923</v>
+      </c>
+      <c r="B4" s="0">
+        <v>202.8673</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1583</v>
+      </c>
+      <c r="B5" s="0">
+        <v>199.4802</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1259</v>
+      </c>
+      <c r="B6" s="0">
+        <v>195.242</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1155</v>
+      </c>
+      <c r="B7" s="0">
+        <v>193.2463</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1051</v>
+      </c>
+      <c r="B8" s="0">
+        <v>191.2505</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0954</v>
+      </c>
+      <c r="B9" s="0">
+        <v>189.2692</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0857</v>
+      </c>
+      <c r="B10" s="0">
+        <v>187.2879</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0764</v>
+      </c>
+      <c r="B11" s="0">
+        <v>185.3139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0672</v>
+      </c>
+      <c r="B12" s="0">
+        <v>183.3435</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0587</v>
+      </c>
+      <c r="B13" s="0">
+        <v>179.6131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0502</v>
+      </c>
+      <c r="B14" s="0">
+        <v>177.6572</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0427</v>
+      </c>
+      <c r="B15" s="0">
+        <v>175.723</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0353</v>
+      </c>
+      <c r="B16" s="0">
+        <v>172.9052</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0289</v>
+      </c>
+      <c r="B17" s="0">
+        <v>168.331</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0228</v>
+      </c>
+      <c r="B18" s="0">
+        <v>165.5386</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0175</v>
+      </c>
+      <c r="B19" s="0">
+        <v>161.8771</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0134</v>
+      </c>
+      <c r="B20" s="0">
+        <v>159.1282</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0097</v>
+      </c>
+      <c r="B21" s="0">
+        <v>155.4993</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0061</v>
+      </c>
+      <c r="B22" s="0">
+        <v>149.2121</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0032</v>
+      </c>
+      <c r="B23" s="0">
+        <v>139.3904</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0014</v>
+      </c>
+      <c r="B24" s="0">
+        <v>127.8158</v>
+      </c>
+    </row>
+    <row r="25"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.2132</v>
+      </c>
+      <c r="B3" s="0">
+        <v>378.1117</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.1815</v>
+      </c>
+      <c r="B4" s="0">
+        <v>370.3389</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1504</v>
+      </c>
+      <c r="B5" s="0">
+        <v>361.6897</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1214</v>
+      </c>
+      <c r="B6" s="0">
+        <v>351.3131</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1119</v>
+      </c>
+      <c r="B7" s="0">
+        <v>348.4482</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1029</v>
+      </c>
+      <c r="B8" s="0">
+        <v>344.7068</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0937</v>
+      </c>
+      <c r="B9" s="0">
+        <v>340.9619</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.085</v>
+      </c>
+      <c r="B10" s="0">
+        <v>337.2278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0768</v>
+      </c>
+      <c r="B11" s="0">
+        <v>332.6173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0687</v>
+      </c>
+      <c r="B12" s="0">
+        <v>327.1195</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.061</v>
+      </c>
+      <c r="B13" s="0">
+        <v>322.5199</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0539</v>
+      </c>
+      <c r="B14" s="0">
+        <v>317.9312</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0464</v>
+      </c>
+      <c r="B15" s="0">
+        <v>311.5607</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0399</v>
+      </c>
+      <c r="B16" s="0">
+        <v>306.9864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0338</v>
+      </c>
+      <c r="B17" s="0">
+        <v>303.3068</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.028</v>
+      </c>
+      <c r="B18" s="0">
+        <v>296.0852</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0227</v>
+      </c>
+      <c r="B19" s="0">
+        <v>290.6491</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0183</v>
+      </c>
+      <c r="B20" s="0">
+        <v>284.3438</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0142</v>
+      </c>
+      <c r="B21" s="0">
+        <v>278.0458</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0105</v>
+      </c>
+      <c r="B22" s="0">
+        <v>271.755</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0078</v>
+      </c>
+      <c r="B23" s="0">
+        <v>264.5988</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0056</v>
+      </c>
+      <c r="B24" s="0">
+        <v>253.9042</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0036</v>
+      </c>
+      <c r="B25" s="0">
+        <v>242.326</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0022</v>
+      </c>
+      <c r="B26" s="0">
+        <v>229.8751</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0017</v>
+      </c>
+      <c r="B27" s="0">
+        <v>213.8931</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0013</v>
+      </c>
+      <c r="B28" s="0">
+        <v>196.1366</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0008</v>
+      </c>
+      <c r="B29" s="0">
+        <v>178.38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0006</v>
+      </c>
+      <c r="B30" s="0">
+        <v>158.8562</v>
+      </c>
+    </row>
+    <row r="31"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.1987</v>
+      </c>
+      <c r="B3" s="0">
+        <v>903.0928</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.178</v>
+      </c>
+      <c r="B4" s="0">
+        <v>875.1446</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1586</v>
+      </c>
+      <c r="B5" s="0">
+        <v>848.1127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1381</v>
+      </c>
+      <c r="B6" s="0">
+        <v>815.7317</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1187</v>
+      </c>
+      <c r="B7" s="0">
+        <v>784.2634</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.098</v>
+      </c>
+      <c r="B8" s="0">
+        <v>750.1043</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0805</v>
+      </c>
+      <c r="B9" s="0">
+        <v>717.7886</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0686</v>
+      </c>
+      <c r="B10" s="0">
+        <v>694.4654</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0637</v>
+      </c>
+      <c r="B11" s="0">
+        <v>683.7128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0594</v>
+      </c>
+      <c r="B12" s="0">
+        <v>674.7493</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0552</v>
+      </c>
+      <c r="B13" s="0">
+        <v>665.7858</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0515</v>
+      </c>
+      <c r="B14" s="0">
+        <v>657.7205</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0454</v>
+      </c>
+      <c r="B15" s="0">
+        <v>645.168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0403</v>
+      </c>
+      <c r="B16" s="0">
+        <v>629.9754</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0347</v>
+      </c>
+      <c r="B17" s="0">
+        <v>617.4338</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0297</v>
+      </c>
+      <c r="B18" s="0">
+        <v>603.1321</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0248</v>
+      </c>
+      <c r="B19" s="0">
+        <v>587.0558</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0181</v>
+      </c>
+      <c r="B20" s="0">
+        <v>560.2923</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0116</v>
+      </c>
+      <c r="B21" s="0">
+        <v>529.9869</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0064</v>
+      </c>
+      <c r="B22" s="0">
+        <v>493.4959</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0027</v>
+      </c>
+      <c r="B23" s="0">
+        <v>444.6156</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0015</v>
+      </c>
+      <c r="B24" s="0">
+        <v>393.1242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0004</v>
+      </c>
+      <c r="B25" s="0">
+        <v>338.9745</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0003</v>
+      </c>
+      <c r="B26" s="0">
+        <v>288.3958</v>
+      </c>
+    </row>
+    <row r="27"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -23357,7 +24197,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -23529,918 +24369,6 @@
       </c>
     </row>
     <row r="23"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.2085</v>
-      </c>
-      <c r="B3" s="0">
-        <v>161.7409</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.1663</v>
-      </c>
-      <c r="B4" s="0">
-        <v>161.8458</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.125</v>
-      </c>
-      <c r="B5" s="0">
-        <v>159.7677</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.111</v>
-      </c>
-      <c r="B6" s="0">
-        <v>159.3124</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0977</v>
-      </c>
-      <c r="B7" s="0">
-        <v>158.883</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0845</v>
-      </c>
-      <c r="B8" s="0">
-        <v>156.9776</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0711</v>
-      </c>
-      <c r="B9" s="0">
-        <v>155.805</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0585</v>
-      </c>
-      <c r="B10" s="0">
-        <v>156.1342</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0461</v>
-      </c>
-      <c r="B11" s="0">
-        <v>153.5167</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.0343</v>
-      </c>
-      <c r="B12" s="0">
-        <v>151.6578</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0238</v>
-      </c>
-      <c r="B13" s="0">
-        <v>149.1023</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0146</v>
-      </c>
-      <c r="B14" s="0">
-        <v>145.1123</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0079</v>
-      </c>
-      <c r="B15" s="0">
-        <v>139.729</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0037</v>
-      </c>
-      <c r="B16" s="0">
-        <v>133.6906</v>
-      </c>
-    </row>
-    <row r="17"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.1987</v>
-      </c>
-      <c r="B3" s="0">
-        <v>903.0928</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.178</v>
-      </c>
-      <c r="B4" s="0">
-        <v>875.1446</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1586</v>
-      </c>
-      <c r="B5" s="0">
-        <v>848.1127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1381</v>
-      </c>
-      <c r="B6" s="0">
-        <v>815.7317</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1187</v>
-      </c>
-      <c r="B7" s="0">
-        <v>784.2634</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.098</v>
-      </c>
-      <c r="B8" s="0">
-        <v>750.1043</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0805</v>
-      </c>
-      <c r="B9" s="0">
-        <v>717.7886</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0686</v>
-      </c>
-      <c r="B10" s="0">
-        <v>694.4654</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0637</v>
-      </c>
-      <c r="B11" s="0">
-        <v>683.7128</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.0594</v>
-      </c>
-      <c r="B12" s="0">
-        <v>674.7493</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0552</v>
-      </c>
-      <c r="B13" s="0">
-        <v>665.7858</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0515</v>
-      </c>
-      <c r="B14" s="0">
-        <v>657.7205</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0454</v>
-      </c>
-      <c r="B15" s="0">
-        <v>645.168</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0403</v>
-      </c>
-      <c r="B16" s="0">
-        <v>629.9754</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0347</v>
-      </c>
-      <c r="B17" s="0">
-        <v>617.4338</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0297</v>
-      </c>
-      <c r="B18" s="0">
-        <v>603.1321</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0248</v>
-      </c>
-      <c r="B19" s="0">
-        <v>587.0558</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0181</v>
-      </c>
-      <c r="B20" s="0">
-        <v>560.2923</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0116</v>
-      </c>
-      <c r="B21" s="0">
-        <v>529.9869</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0064</v>
-      </c>
-      <c r="B22" s="0">
-        <v>493.4959</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0027</v>
-      </c>
-      <c r="B23" s="0">
-        <v>444.6156</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0015</v>
-      </c>
-      <c r="B24" s="0">
-        <v>393.1242</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0004</v>
-      </c>
-      <c r="B25" s="0">
-        <v>338.9745</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0003</v>
-      </c>
-      <c r="B26" s="0">
-        <v>288.3958</v>
-      </c>
-    </row>
-    <row r="27"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.2174</v>
-      </c>
-      <c r="B3" s="0">
-        <v>928.3155</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.1939</v>
-      </c>
-      <c r="B4" s="0">
-        <v>893.0569</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1702</v>
-      </c>
-      <c r="B5" s="0">
-        <v>857.7943</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1467</v>
-      </c>
-      <c r="B6" s="0">
-        <v>818.7651</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1243</v>
-      </c>
-      <c r="B7" s="0">
-        <v>782.0267</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1168</v>
-      </c>
-      <c r="B8" s="0">
-        <v>769.0237</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1092</v>
-      </c>
-      <c r="B9" s="0">
-        <v>756.7748</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1018</v>
-      </c>
-      <c r="B10" s="0">
-        <v>743.7759</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0944</v>
-      </c>
-      <c r="B11" s="0">
-        <v>729.2687</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.0872</v>
-      </c>
-      <c r="B12" s="0">
-        <v>716.2738</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="B13" s="0">
-        <v>701.7707</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0731</v>
-      </c>
-      <c r="B14" s="0">
-        <v>687.2756</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0662</v>
-      </c>
-      <c r="B15" s="0">
-        <v>673.5347</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0591</v>
-      </c>
-      <c r="B16" s="0">
-        <v>658.2815</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0526</v>
-      </c>
-      <c r="B17" s="0">
-        <v>645.3029</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0462</v>
-      </c>
-      <c r="B18" s="0">
-        <v>628.5576</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0396</v>
-      </c>
-      <c r="B19" s="0">
-        <v>615.5789</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0339</v>
-      </c>
-      <c r="B20" s="0">
-        <v>599.604</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0282</v>
-      </c>
-      <c r="B21" s="0">
-        <v>582.8749</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.023</v>
-      </c>
-      <c r="B22" s="0">
-        <v>565.4039</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0181</v>
-      </c>
-      <c r="B23" s="0">
-        <v>547.1869</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0136</v>
-      </c>
-      <c r="B24" s="0">
-        <v>529.732</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0101</v>
-      </c>
-      <c r="B25" s="0">
-        <v>510.0392</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0076</v>
-      </c>
-      <c r="B26" s="0">
-        <v>487.3541</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0052</v>
-      </c>
-      <c r="B27" s="0">
-        <v>464.673</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0036</v>
-      </c>
-      <c r="B28" s="0">
-        <v>442.0082</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0024</v>
-      </c>
-      <c r="B29" s="0">
-        <v>417.0931</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0016</v>
-      </c>
-      <c r="B30" s="0">
-        <v>391.432</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0011</v>
-      </c>
-      <c r="B31" s="0">
-        <v>364.2707</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0007</v>
-      </c>
-      <c r="B32" s="0">
-        <v>338.6218</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0006</v>
-      </c>
-      <c r="B33" s="0">
-        <v>311.4686</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0002</v>
-      </c>
-      <c r="B34" s="0">
-        <v>282.8031</v>
-      </c>
-    </row>
-    <row r="35"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0099</v>
-      </c>
-      <c r="B3" s="0">
-        <v>377.0177</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0314</v>
-      </c>
-      <c r="B4" s="0">
-        <v>442.162</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0619</v>
-      </c>
-      <c r="B5" s="0">
-        <v>495.8952</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0849</v>
-      </c>
-      <c r="B6" s="0">
-        <v>531.4169</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0999</v>
-      </c>
-      <c r="B7" s="0">
-        <v>552.0687</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1195</v>
-      </c>
-      <c r="B8" s="0">
-        <v>578.4866</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1391</v>
-      </c>
-      <c r="B9" s="0">
-        <v>602.5151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1599</v>
-      </c>
-      <c r="B10" s="0">
-        <v>627.5071</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1795</v>
-      </c>
-      <c r="B11" s="0">
-        <v>651.5356</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1986</v>
-      </c>
-      <c r="B12" s="0">
-        <v>672.2147</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2478</v>
-      </c>
-      <c r="B13" s="0">
-        <v>720.816</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3041</v>
-      </c>
-      <c r="B14" s="0">
-        <v>768.0304</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3517</v>
-      </c>
-      <c r="B15" s="0">
-        <v>799.4152</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3999</v>
-      </c>
-      <c r="B16" s="0">
-        <v>824.1132</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4506</v>
-      </c>
-      <c r="B17" s="0">
-        <v>840.2244</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4996</v>
-      </c>
-      <c r="B18" s="0">
-        <v>849.6331</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5498</v>
-      </c>
-      <c r="B19" s="0">
-        <v>854.7485</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6007</v>
-      </c>
-      <c r="B20" s="0">
-        <v>857.4783</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6509</v>
-      </c>
-      <c r="B21" s="0">
-        <v>861.1599</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B22" s="0">
-        <v>862.4442</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7508</v>
-      </c>
-      <c r="B23" s="0">
-        <v>864.6961</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7999</v>
-      </c>
-      <c r="B24" s="0">
-        <v>865.9804</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8203</v>
-      </c>
-      <c r="B25" s="0">
-        <v>866.1172</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8507</v>
-      </c>
-      <c r="B26" s="0">
-        <v>867.7543</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8752</v>
-      </c>
-      <c r="B27" s="0">
-        <v>869.8302</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.9004</v>
-      </c>
-      <c r="B28" s="0">
-        <v>870.4762</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9249</v>
-      </c>
-      <c r="B29" s="0">
-        <v>871.1184</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.95</v>
-      </c>
-      <c r="B30" s="0">
-        <v>871.2865</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9763</v>
-      </c>
-      <c r="B31" s="0">
-        <v>872.8962</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9915</v>
-      </c>
-      <c r="B32" s="0">
-        <v>874.4316</v>
-      </c>
-    </row>
-    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -24637,7 +24565,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24658,98 +24586,98 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1992</v>
+        <v>0.2043</v>
       </c>
       <c r="B3" s="0">
-        <v>105.918</v>
+        <v>222.8598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1607</v>
+        <v>0.1632</v>
       </c>
       <c r="B4" s="0">
-        <v>105.5228</v>
+        <v>220.0489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.123</v>
+        <v>0.1227</v>
       </c>
       <c r="B5" s="0">
-        <v>104.4208</v>
+        <v>217.9968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1103</v>
+        <v>0.1093</v>
       </c>
       <c r="B6" s="0">
-        <v>103.3197</v>
+        <v>216.8241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0976</v>
+        <v>0.0964</v>
       </c>
       <c r="B7" s="0">
-        <v>102.9492</v>
+        <v>217.1431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0854</v>
+        <v>0.0835</v>
       </c>
       <c r="B8" s="0">
-        <v>102.5929</v>
+        <v>215.986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0739</v>
+        <v>0.0706</v>
       </c>
       <c r="B9" s="0">
-        <v>101.5251</v>
+        <v>214.0909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0617</v>
+        <v>0.0588</v>
       </c>
       <c r="B10" s="0">
-        <v>101.1688</v>
+        <v>213.708</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0505</v>
+        <v>0.0474</v>
       </c>
       <c r="B11" s="0">
-        <v>99.3799</v>
+        <v>211.8595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0396</v>
+        <v>0.0364</v>
       </c>
       <c r="B12" s="0">
-        <v>98.331</v>
+        <v>209.2885</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0294</v>
+        <v>0.0268</v>
       </c>
       <c r="B13" s="0">
-        <v>96.5706</v>
+        <v>207.5021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0199</v>
+        <v>0.0185</v>
       </c>
       <c r="B14" s="0">
-        <v>94.1033</v>
+        <v>203.5431</v>
       </c>
     </row>
     <row r="15">
@@ -24757,26 +24685,42 @@
         <v>0.0121</v>
       </c>
       <c r="B15" s="0">
-        <v>91.6836</v>
+        <v>200.3842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0063</v>
+        <v>0.0074</v>
       </c>
       <c r="B16" s="0">
-        <v>87.1291</v>
+        <v>195.063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0026</v>
+        <v>0.0039</v>
       </c>
       <c r="B17" s="0">
-        <v>84.0975</v>
-      </c>
-    </row>
-    <row r="18"/>
+        <v>188.3072</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="B18" s="0">
+        <v>177.9132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B19" s="0">
+        <v>167.5451</v>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -24785,7 +24729,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24806,106 +24750,106 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2003</v>
+        <v>0.1995</v>
       </c>
       <c r="B3" s="0">
-        <v>26.4613</v>
+        <v>320.1197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1803</v>
+        <v>0.1795</v>
       </c>
       <c r="B4" s="0">
-        <v>26.9243</v>
+        <v>320.2109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1601</v>
+        <v>0.1579</v>
       </c>
       <c r="B5" s="0">
-        <v>26.4928</v>
+        <v>318.0313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1342</v>
+        <v>0.1376</v>
       </c>
       <c r="B6" s="0">
-        <v>28.6034</v>
+        <v>316.6362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1165</v>
+        <v>0.1153</v>
       </c>
       <c r="B7" s="0">
-        <v>29.1135</v>
+        <v>315.1738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0998</v>
+        <v>0.1015</v>
       </c>
       <c r="B8" s="0">
-        <v>26.0963</v>
+        <v>313.9857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0802</v>
+        <v>0.0808</v>
       </c>
       <c r="B9" s="0">
-        <v>25.6792</v>
+        <v>311.8371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.07</v>
+        <v>0.0712</v>
       </c>
       <c r="B10" s="0">
-        <v>26.3489</v>
+        <v>312.2647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0611</v>
+        <v>0.0597</v>
       </c>
       <c r="B11" s="0">
-        <v>25.273</v>
+        <v>308.9402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0553</v>
+        <v>0.0514</v>
       </c>
       <c r="B12" s="0">
-        <v>26.037</v>
+        <v>306.4571</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0499</v>
+        <v>0.0438</v>
       </c>
       <c r="B13" s="0">
-        <v>26.8083</v>
+        <v>303.9948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0412</v>
+        <v>0.0379</v>
       </c>
       <c r="B14" s="0">
-        <v>24.8487</v>
+        <v>299.3754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0339</v>
+        <v>0.033</v>
       </c>
       <c r="B15" s="0">
-        <v>25.5801</v>
+        <v>296.2631</v>
       </c>
     </row>
     <row r="16">
@@ -24913,26 +24857,66 @@
         <v>0.0279</v>
       </c>
       <c r="B16" s="0">
-        <v>24.5659</v>
+        <v>296.0975</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0139</v>
+        <v>0.0236</v>
       </c>
       <c r="B17" s="0">
-        <v>24.2685</v>
+        <v>293.0058</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0019</v>
+        <v>0.0193</v>
       </c>
       <c r="B18" s="0">
-        <v>19.5746</v>
-      </c>
-    </row>
-    <row r="19"/>
+        <v>288.4382</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0143</v>
+      </c>
+      <c r="B19" s="0">
+        <v>282.3738</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0097</v>
+      </c>
+      <c r="B20" s="0">
+        <v>277.0578</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0064</v>
+      </c>
+      <c r="B21" s="0">
+        <v>268.0933</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0041</v>
+      </c>
+      <c r="B22" s="0">
+        <v>259.9029</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0024</v>
+      </c>
+      <c r="B23" s="0">
+        <v>248.7761</v>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -24941,7 +24925,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24962,141 +24946,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1997</v>
+        <v>0.2091</v>
       </c>
       <c r="B3" s="0">
-        <v>180.5269</v>
+        <v>494.6016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1798</v>
+        <v>0.1771</v>
       </c>
       <c r="B4" s="0">
-        <v>180.0482</v>
+        <v>489.1337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1588</v>
+        <v>0.1477</v>
       </c>
       <c r="B5" s="0">
-        <v>178.7869</v>
+        <v>484.4917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1395</v>
+        <v>0.1226</v>
       </c>
       <c r="B6" s="0">
-        <v>178.3203</v>
+        <v>477.7703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1186</v>
+        <v>0.1149</v>
       </c>
       <c r="B7" s="0">
-        <v>177.063</v>
+        <v>473.094</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1</v>
+        <v>0.1076</v>
       </c>
       <c r="B8" s="0">
-        <v>175.8585</v>
+        <v>471.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.08</v>
+        <v>0.1006</v>
       </c>
       <c r="B9" s="0">
-        <v>173.8674</v>
+        <v>468.9384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0699</v>
+        <v>0.0945</v>
       </c>
       <c r="B10" s="0">
-        <v>173.624</v>
+        <v>466.5278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0616</v>
+        <v>0.0882</v>
       </c>
       <c r="B11" s="0">
-        <v>173.4252</v>
+        <v>464.1069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0563</v>
+        <v>0.0823</v>
       </c>
       <c r="B12" s="0">
-        <v>172.5412</v>
+        <v>459.4875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0514</v>
+        <v>0.0768</v>
       </c>
       <c r="B13" s="0">
-        <v>171.6694</v>
+        <v>457.0976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0443</v>
+        <v>0.0716</v>
       </c>
       <c r="B14" s="0">
-        <v>170.7449</v>
+        <v>453.9749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0371</v>
+        <v>0.0668</v>
       </c>
       <c r="B15" s="0">
-        <v>169.8163</v>
+        <v>450.1297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0307</v>
+        <v>0.0619</v>
       </c>
       <c r="B16" s="0">
-        <v>168.908</v>
+        <v>446.2793</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0255</v>
+        <v>0.0574</v>
       </c>
       <c r="B17" s="0">
-        <v>168.028</v>
+        <v>442.4445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0163</v>
+        <v>0.0533</v>
       </c>
       <c r="B18" s="0">
-        <v>163.28</v>
+        <v>438.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0057</v>
+        <v>0.0495</v>
       </c>
       <c r="B19" s="0">
-        <v>156.2372</v>
-      </c>
-    </row>
-    <row r="20"/>
+        <v>433.3299</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.046</v>
+      </c>
+      <c r="B20" s="0">
+        <v>431.0021</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0421</v>
+      </c>
+      <c r="B21" s="0">
+        <v>426.4499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0389</v>
+      </c>
+      <c r="B22" s="0">
+        <v>421.9185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0358</v>
+      </c>
+      <c r="B23" s="0">
+        <v>418.863</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0329</v>
+      </c>
+      <c r="B24" s="0">
+        <v>413.604</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0297</v>
+      </c>
+      <c r="B25" s="0">
+        <v>409.0725</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0272</v>
+      </c>
+      <c r="B26" s="0">
+        <v>403.8238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0248</v>
+      </c>
+      <c r="B27" s="0">
+        <v>400.0562</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0221</v>
+      </c>
+      <c r="B28" s="0">
+        <v>395.5403</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B29" s="0">
+        <v>389.5691</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0176</v>
+      </c>
+      <c r="B30" s="0">
+        <v>384.3255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0151</v>
+      </c>
+      <c r="B31" s="0">
+        <v>379.0768</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0125</v>
+      </c>
+      <c r="B32" s="0">
+        <v>373.0901</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0103</v>
+      </c>
+      <c r="B33" s="0">
+        <v>363.4237</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0084</v>
+      </c>
+      <c r="B34" s="0">
+        <v>354.5057</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0063</v>
+      </c>
+      <c r="B35" s="0">
+        <v>344.8445</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0047</v>
+      </c>
+      <c r="B36" s="0">
+        <v>333.7229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0035</v>
+      </c>
+      <c r="B37" s="0">
+        <v>321.1356</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -25105,7 +25233,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25126,141 +25254,165 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2043</v>
+        <v>0.2004</v>
       </c>
       <c r="B3" s="0">
-        <v>222.8598</v>
+        <v>640.4449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1632</v>
+        <v>0.1942</v>
       </c>
       <c r="B4" s="0">
-        <v>220.0489</v>
+        <v>638.0291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1227</v>
+        <v>0.1763</v>
       </c>
       <c r="B5" s="0">
-        <v>217.9968</v>
+        <v>627.1177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1093</v>
+        <v>0.1559</v>
       </c>
       <c r="B6" s="0">
-        <v>216.8241</v>
+        <v>614.6476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0964</v>
+        <v>0.1344</v>
       </c>
       <c r="B7" s="0">
-        <v>217.1431</v>
+        <v>599.9272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0835</v>
+        <v>0.1222</v>
       </c>
       <c r="B8" s="0">
-        <v>215.986</v>
+        <v>588.4589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0706</v>
+        <v>0.101</v>
       </c>
       <c r="B9" s="0">
-        <v>214.0909</v>
+        <v>568.583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0588</v>
+        <v>0.0798</v>
       </c>
       <c r="B10" s="0">
-        <v>213.708</v>
+        <v>543.5411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0474</v>
+        <v>0.0698</v>
       </c>
       <c r="B11" s="0">
-        <v>211.8595</v>
+        <v>530.6692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0364</v>
+        <v>0.0601</v>
       </c>
       <c r="B12" s="0">
-        <v>209.2885</v>
+        <v>516.3317</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0268</v>
+        <v>0.0531</v>
       </c>
       <c r="B13" s="0">
-        <v>207.5021</v>
+        <v>505.0342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0185</v>
+        <v>0.043</v>
       </c>
       <c r="B14" s="0">
-        <v>203.5431</v>
+        <v>487.7344</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0121</v>
+        <v>0.0184</v>
       </c>
       <c r="B15" s="0">
-        <v>200.3842</v>
+        <v>430.845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0074</v>
+        <v>0.0093</v>
       </c>
       <c r="B16" s="0">
-        <v>195.063</v>
+        <v>396.6024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0039</v>
+        <v>0.0081</v>
       </c>
       <c r="B17" s="0">
-        <v>188.3072</v>
+        <v>389.181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.002</v>
+        <v>0.0069</v>
       </c>
       <c r="B18" s="0">
-        <v>177.9132</v>
+        <v>380.2889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0009</v>
+        <v>0.006</v>
       </c>
       <c r="B19" s="0">
-        <v>167.5451</v>
-      </c>
-    </row>
-    <row r="20"/>
+        <v>372.1399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0052</v>
+      </c>
+      <c r="B20" s="0">
+        <v>363.9961</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0043</v>
+      </c>
+      <c r="B21" s="0">
+        <v>353.6332</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.003</v>
+      </c>
+      <c r="B22" s="0">
+        <v>335.142</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -25269,7 +25421,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25290,269 +25442,117 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.199</v>
+        <v>0.2085</v>
       </c>
       <c r="B3" s="0">
-        <v>243.993</v>
+        <v>161.7409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1788</v>
+        <v>0.1663</v>
       </c>
       <c r="B4" s="0">
-        <v>243.404</v>
+        <v>161.8458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1577</v>
+        <v>0.125</v>
       </c>
       <c r="B5" s="0">
-        <v>242.7865</v>
+        <v>159.7677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1383</v>
+        <v>0.111</v>
       </c>
       <c r="B6" s="0">
-        <v>240.76</v>
+        <v>159.3124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1174</v>
+        <v>0.0977</v>
       </c>
       <c r="B7" s="0">
-        <v>240.8778</v>
+        <v>158.883</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1001</v>
+        <v>0.0845</v>
       </c>
       <c r="B8" s="0">
-        <v>238.1826</v>
+        <v>156.9776</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.08</v>
+        <v>0.0711</v>
       </c>
       <c r="B9" s="0">
-        <v>236.1324</v>
+        <v>155.805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0701</v>
+        <v>0.0585</v>
       </c>
       <c r="B10" s="0">
-        <v>235.8426</v>
+        <v>156.1342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0624</v>
+        <v>0.0461</v>
       </c>
       <c r="B11" s="0">
-        <v>234.1582</v>
+        <v>153.5167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0585</v>
+        <v>0.0343</v>
       </c>
       <c r="B12" s="0">
-        <v>233.3136</v>
+        <v>151.6578</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0553</v>
+        <v>0.0238</v>
       </c>
       <c r="B13" s="0">
-        <v>233.9492</v>
+        <v>149.1023</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0519</v>
+        <v>0.0146</v>
       </c>
       <c r="B14" s="0">
-        <v>232.3883</v>
+        <v>145.1123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0486</v>
+        <v>0.0079</v>
       </c>
       <c r="B15" s="0">
-        <v>231.5627</v>
+        <v>139.729</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0454</v>
+        <v>0.0037</v>
       </c>
       <c r="B16" s="0">
-        <v>230.0065</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0421</v>
-      </c>
-      <c r="B17" s="0">
-        <v>229.1809</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0392</v>
-      </c>
-      <c r="B18" s="0">
-        <v>228.3649</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0361</v>
-      </c>
-      <c r="B19" s="0">
-        <v>227.544</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0337</v>
-      </c>
-      <c r="B20" s="0">
-        <v>227.4728</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0306</v>
-      </c>
-      <c r="B21" s="0">
-        <v>226.6519</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0283</v>
-      </c>
-      <c r="B22" s="0">
-        <v>226.5854</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0262</v>
-      </c>
-      <c r="B23" s="0">
-        <v>225.0625</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0242</v>
-      </c>
-      <c r="B24" s="0">
-        <v>223.5444</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0221</v>
-      </c>
-      <c r="B25" s="0">
-        <v>222.752</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B26" s="0">
-        <v>220.4985</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0179</v>
-      </c>
-      <c r="B27" s="0">
-        <v>218.245</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0156</v>
-      </c>
-      <c r="B28" s="0">
-        <v>216.7174</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0135</v>
-      </c>
-      <c r="B29" s="0">
-        <v>214.4639</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0112</v>
-      </c>
-      <c r="B30" s="0">
-        <v>212.2056</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0091</v>
-      </c>
-      <c r="B31" s="0">
-        <v>209.2216</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.007</v>
-      </c>
-      <c r="B32" s="0">
-        <v>205.5069</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0051</v>
-      </c>
-      <c r="B33" s="0">
-        <v>201.797</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0031</v>
-      </c>
-      <c r="B34" s="0">
-        <v>198.8177</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0017</v>
-      </c>
-      <c r="B35" s="0">
-        <v>193.6609</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>133.6906</v>
+      </c>
+    </row>
+    <row r="17"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 40 Preparation and characterization of/Data40_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 40 Preparation and characterization of/Data40_all_graphs_excel.xlsx
@@ -9,24 +9,24 @@
     <sheet name="Figure 10_1 KUR360  0&amp;1&amp;300&amp;950" sheetId="2" r:id="rId4"/>
     <sheet name="Figure 10_2 KMT240  0&amp;1&amp;250&amp;900" sheetId="3" r:id="rId5"/>
     <sheet name="Figure 10_2 KUT360  0&amp;1&amp;250&amp;900" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 9_1 BO15-60min  0&amp;0.25&amp;0" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 9_1 BO32-120min  0&amp;0.25&amp;" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 9_1 BO51-240min  0&amp;0.25&amp;" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 9_1 BO79-360min  0&amp;0.25&amp;" sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 9_1 BO8-30min  0&amp;0.25&amp;0&amp;" sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 9_2 BO15-30min  0&amp;0.25&amp;0" sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 9_2 BO34-60min  0&amp;0.25&amp;0" sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 9_2 BO58-120min  0&amp;0.25&amp;" sheetId="12" r:id="rId14"/>
-    <sheet name="Figure 9_2 BO83-240min  0&amp;0.25&amp;" sheetId="13" r:id="rId15"/>
-    <sheet name="Figure 9_3 BO11-60min  0&amp;0.25&amp;0" sheetId="14" r:id="rId16"/>
-    <sheet name="Figure 9_3 BO26-120min  0&amp;0.25&amp;" sheetId="15" r:id="rId17"/>
-    <sheet name="Figure 9_3 BO5-30min  0&amp;0.25&amp;0&amp;" sheetId="16" r:id="rId18"/>
-    <sheet name="Figure 9_3 BO56-240min  0&amp;0.25&amp;" sheetId="17" r:id="rId19"/>
-    <sheet name="Figure 9_3 BO65-360min  0&amp;0.25&amp;" sheetId="18" r:id="rId20"/>
-    <sheet name="Figure 9_4 BO15-10min  0&amp;0.25&amp;0" sheetId="19" r:id="rId21"/>
-    <sheet name="Figure 9_4 BO26-30min  0&amp;0.25&amp;0" sheetId="20" r:id="rId22"/>
-    <sheet name="Figure 9_4 BO40-120min  0&amp;0.25&amp;" sheetId="21" r:id="rId23"/>
-    <sheet name="Figure 9_4 BO80-240min  0&amp;0.25&amp;" sheetId="22" r:id="rId24"/>
+    <sheet name="Figure 9_1 KUR-BO15-60min  0&amp;0." sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 9_1 KUR-BO32-120min  0&amp;0" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 9_1 KUR-BO51-240min  0&amp;0" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 9_1 KUR-BO79-360min  0&amp;0" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 9_1 KUR-BO8-30min  0&amp;0.2" sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 9_2 KMR-BO15-30min  0&amp;0." sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 9_2 KMR-BO34-60min  0&amp;0." sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 9_2 KMR-BO58-120min  0&amp;0" sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 9_2 KMR-BO83-240min  0&amp;0" sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 9_3 KUT-BO11-60min  0&amp;0." sheetId="14" r:id="rId16"/>
+    <sheet name="Figure 9_3 KUT-BO26-120min  0&amp;0" sheetId="15" r:id="rId17"/>
+    <sheet name="Figure 9_3 KUT-BO5-30min  0&amp;0.2" sheetId="16" r:id="rId18"/>
+    <sheet name="Figure 9_3 KUT-BO56-240min  0&amp;0" sheetId="17" r:id="rId19"/>
+    <sheet name="Figure 9_3 KUT-BO65-360min  0&amp;0" sheetId="18" r:id="rId20"/>
+    <sheet name="Figure 9_4 KMT-BO15-10min  0&amp;0." sheetId="19" r:id="rId21"/>
+    <sheet name="Figure 9_4 KMT-BO26-30min  0&amp;0." sheetId="20" r:id="rId22"/>
+    <sheet name="Figure 9_4 KMT-BO40-120min  0&amp;0" sheetId="21" r:id="rId23"/>
+    <sheet name="Figure 9_4 KMT-BO80-240min  0&amp;0" sheetId="22" r:id="rId24"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -53,58 +53,58 @@
     <t>KUT360</t>
   </si>
   <si>
-    <t>BO15-60min</t>
+    <t>KUR-BO15-60min</t>
   </si>
   <si>
-    <t>BO32-120min</t>
+    <t>KUR-BO32-120min</t>
   </si>
   <si>
-    <t>BO51-240min</t>
+    <t>KUR-BO51-240min</t>
   </si>
   <si>
-    <t>BO79-360min</t>
+    <t>KUR-BO79-360min</t>
   </si>
   <si>
-    <t>BO8-30min</t>
+    <t>KUR-BO8-30min</t>
   </si>
   <si>
-    <t>BO15-30min</t>
+    <t>KMR-BO15-30min</t>
   </si>
   <si>
-    <t>BO34-60min</t>
+    <t>KMR-BO34-60min</t>
   </si>
   <si>
-    <t>BO58-120min</t>
+    <t>KMR-BO58-120min</t>
   </si>
   <si>
-    <t>BO83-240min</t>
+    <t>KMR-BO83-240min</t>
   </si>
   <si>
-    <t>BO11-60min</t>
+    <t>KUT-BO11-60min</t>
   </si>
   <si>
-    <t>BO26-120min</t>
+    <t>KUT-BO26-120min</t>
   </si>
   <si>
-    <t>BO5-30min</t>
+    <t>KUT-BO5-30min</t>
   </si>
   <si>
-    <t>BO56-240min</t>
+    <t>KUT-BO56-240min</t>
   </si>
   <si>
-    <t>BO65-360min</t>
+    <t>KUT-BO65-360min</t>
   </si>
   <si>
-    <t>BO15-10min</t>
+    <t>KMT-BO15-10min</t>
   </si>
   <si>
-    <t>BO26-30min</t>
+    <t>KMT-BO26-30min</t>
   </si>
   <si>
-    <t>BO40-120min</t>
+    <t>KMT-BO40-120min</t>
   </si>
   <si>
-    <t>BO80-240min</t>
+    <t>KMT-BO80-240min</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO15-30min z wykresu 'Figure 9_2' </a:t>
+              <a:t>Izoterma adsorpcji probki KMR-BO15-30min z wykresu 'Figure 9_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -554,12 +554,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_2 BO15-30min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_2 KMR-BO15-30min  0&amp;0.'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_2 BO15-30min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_2 KMR-BO15-30min  0&amp;0.'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -809,7 +809,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO34-60min z wykresu 'Figure 9_2' </a:t>
+              <a:t>Izoterma adsorpcji probki KMR-BO34-60min z wykresu 'Figure 9_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -868,12 +868,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_2 BO34-60min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_2 KMR-BO34-60min  0&amp;0.'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_2 BO34-60min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_2 KMR-BO34-60min  0&amp;0.'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1123,7 +1123,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO58-120min z wykresu 'Figure 9_2' </a:t>
+              <a:t>Izoterma adsorpcji probki KMR-BO58-120min z wykresu 'Figure 9_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1182,12 +1182,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_2 BO58-120min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_2 KMR-BO58-120min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_2 BO58-120min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_2 KMR-BO58-120min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1437,7 +1437,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO83-240min z wykresu 'Figure 9_2' </a:t>
+              <a:t>Izoterma adsorpcji probki KMR-BO83-240min z wykresu 'Figure 9_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1496,12 +1496,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_2 BO83-240min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_2 KMR-BO83-240min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_2 BO83-240min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_2 KMR-BO83-240min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1751,7 +1751,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO11-60min z wykresu 'Figure 9_3' </a:t>
+              <a:t>Izoterma adsorpcji probki KUT-BO11-60min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1810,12 +1810,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO11-60min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO11-60min  0&amp;0.'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO11-60min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO11-60min  0&amp;0.'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2065,7 +2065,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO26-120min z wykresu 'Figure 9_3' </a:t>
+              <a:t>Izoterma adsorpcji probki KUT-BO26-120min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2124,12 +2124,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO26-120min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO26-120min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO26-120min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO26-120min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2379,7 +2379,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO5-30min z wykresu 'Figure 9_3' </a:t>
+              <a:t>Izoterma adsorpcji probki KUT-BO5-30min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2438,12 +2438,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO5-30min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO5-30min  0&amp;0.2'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO5-30min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO5-30min  0&amp;0.2'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2693,7 +2693,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO56-240min z wykresu 'Figure 9_3' </a:t>
+              <a:t>Izoterma adsorpcji probki KUT-BO56-240min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2752,12 +2752,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO56-240min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO56-240min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO56-240min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO56-240min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3007,7 +3007,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO65-360min z wykresu 'Figure 9_3' </a:t>
+              <a:t>Izoterma adsorpcji probki KUT-BO65-360min z wykresu 'Figure 9_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3066,12 +3066,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO65-360min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO65-360min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_3 BO65-360min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_3 KUT-BO65-360min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3321,7 +3321,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO15-10min z wykresu 'Figure 9_4' </a:t>
+              <a:t>Izoterma adsorpcji probki KMT-BO15-10min z wykresu 'Figure 9_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3380,12 +3380,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_4 BO15-10min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_4 KMT-BO15-10min  0&amp;0.'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_4 BO15-10min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_4 KMT-BO15-10min  0&amp;0.'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3949,7 +3949,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO26-30min z wykresu 'Figure 9_4' </a:t>
+              <a:t>Izoterma adsorpcji probki KMT-BO26-30min z wykresu 'Figure 9_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4008,12 +4008,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_4 BO26-30min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_4 KMT-BO26-30min  0&amp;0.'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_4 BO26-30min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_4 KMT-BO26-30min  0&amp;0.'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4263,7 +4263,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO40-120min z wykresu 'Figure 9_4' </a:t>
+              <a:t>Izoterma adsorpcji probki KMT-BO40-120min z wykresu 'Figure 9_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4322,12 +4322,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_4 BO40-120min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_4 KMT-BO40-120min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_4 BO40-120min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_4 KMT-BO40-120min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4577,7 +4577,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO80-240min z wykresu 'Figure 9_4' </a:t>
+              <a:t>Izoterma adsorpcji probki KMT-BO80-240min z wykresu 'Figure 9_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4636,12 +4636,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_4 BO80-240min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_4 KMT-BO80-240min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_4 BO80-240min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_4 KMT-BO80-240min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5519,7 +5519,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO15-60min z wykresu 'Figure 9_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KUR-BO15-60min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5578,12 +5578,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO15-60min  0&amp;0.25&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO15-60min  0&amp;0.'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO15-60min  0&amp;0.25&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO15-60min  0&amp;0.'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5833,7 +5833,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO32-120min z wykresu 'Figure 9_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KUR-BO32-120min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5892,12 +5892,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO32-120min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO32-120min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO32-120min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO32-120min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -6147,7 +6147,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO51-240min z wykresu 'Figure 9_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KUR-BO51-240min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6206,12 +6206,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO51-240min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO51-240min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO51-240min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO51-240min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -6461,7 +6461,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO79-360min z wykresu 'Figure 9_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KUR-BO79-360min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6520,12 +6520,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO79-360min  0&amp;0.25&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO79-360min  0&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO79-360min  0&amp;0.25&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO79-360min  0&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -6775,7 +6775,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BO8-30min z wykresu 'Figure 9_1' </a:t>
+              <a:t>Izoterma adsorpcji probki KUR-BO8-30min z wykresu 'Figure 9_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6834,12 +6834,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO8-30min  0&amp;0.25&amp;0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO8-30min  0&amp;0.2'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9_1 BO8-30min  0&amp;0.25&amp;0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 9_1 KUR-BO8-30min  0&amp;0.2'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
